--- a/Greyform-linux-ros1/src/Python_Application/exporteddatas.xlsx
+++ b/Greyform-linux-ros1/src/Python_Application/exporteddatas.xlsx
@@ -524,7 +524,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -666,7 +666,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -736,7 +736,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -773,7 +773,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -808,7 +808,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -878,7 +878,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -913,7 +913,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1088,7 +1088,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1162,7 +1162,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1302,7 +1302,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1337,7 +1337,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1372,7 +1372,7 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1444,7 +1444,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1479,7 +1479,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1514,7 +1514,7 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1549,7 +1549,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1584,7 +1584,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1654,7 @@
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1691,7 +1691,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1765,7 +1765,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1802,7 +1802,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1913,7 +1913,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1948,7 +1948,7 @@
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -1983,7 +1983,7 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -2020,7 +2020,7 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -2090,7 +2090,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -2127,7 +2127,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -2199,7 +2199,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -2234,7 +2234,7 @@
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -2269,7 +2269,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -2343,7 +2343,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2415,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -2450,7 +2450,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -2654,7 +2654,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -2897,7 +2897,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -2934,7 +2934,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -3378,7 +3378,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -3674,7 +3674,7 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -3711,7 +3711,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -3822,7 +3822,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -4266,7 +4266,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -4303,7 +4303,7 @@
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -4708,7 +4708,7 @@
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -4848,7 +4848,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -4883,7 +4883,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -4918,7 +4918,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -6396,7 +6396,7 @@
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -6431,7 +6431,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -6606,7 +6606,7 @@
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -6641,7 +6641,7 @@
       </c>
       <c r="I54" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -6676,7 +6676,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -6711,7 +6711,7 @@
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -6886,7 +6886,7 @@
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -7096,7 +7096,7 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -10180,7 +10180,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -10217,7 +10217,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -10254,7 +10254,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -10291,7 +10291,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -10361,7 +10361,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -10396,7 +10396,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -10431,7 +10431,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -10674,7 +10674,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -10709,7 +10709,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -10744,7 +10744,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -10779,7 +10779,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -10808,7 +10808,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -10917,7 +10917,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -10954,7 +10954,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -11026,7 +11026,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -11098,7 +11098,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -11201,7 +11201,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -11236,7 +11236,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -11271,7 +11271,7 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -11308,7 +11308,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -11345,7 +11345,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -11382,7 +11382,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -11417,7 +11417,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -11619,7 +11619,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -11724,7 +11724,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
@@ -11872,7 +11872,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>blank</t>
+          <t>done</t>
         </is>
       </c>
     </row>
